--- a/Check.xlsx
+++ b/Check.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="83">
   <si>
     <t>Группа проверок/модуль</t>
   </si>
@@ -22,6 +22,9 @@
     <t>Приоритет</t>
   </si>
   <si>
+    <t>Результат</t>
+  </si>
+  <si>
     <t>Авторизация пользователя</t>
   </si>
   <si>
@@ -31,9 +34,15 @@
     <t>High</t>
   </si>
   <si>
+    <t>Failed</t>
+  </si>
+  <si>
     <t>Валидация поля Пароль</t>
   </si>
   <si>
+    <t>Passed</t>
+  </si>
+  <si>
     <t>Авторизация пользователя при незарегистрированном логине</t>
   </si>
   <si>
@@ -46,6 +55,12 @@
     <t>Авторизация пользователя с зарегистрированными данными Логин и Пароль</t>
   </si>
   <si>
+    <t>Ошибка авторизации с  логином CAPS и корректным паролем</t>
+  </si>
+  <si>
+    <t>Ошибка авторизации с корректным логином и паролем CAPS</t>
+  </si>
+  <si>
     <t>Авторизация пользователя при использовании в поле логина SQL или XSS инъекции</t>
   </si>
   <si>
@@ -188,6 +203,18 @@
   </si>
   <si>
     <t>Фильтрация новостей по дате и времени публикации</t>
+  </si>
+  <si>
+    <t>Проверка отображения сообщения об ошибке при отсутсвии новостей</t>
+  </si>
+  <si>
+    <t>Проверка поведения системы при попытке загрузить новости из деноступного источника</t>
+  </si>
+  <si>
+    <t>Проверка корректности обработки невалидных данных новостей (например, некорректный формат даты).</t>
+  </si>
+  <si>
+    <t>Проверка отображения новостей при отсутствии интернет-соединения.</t>
   </si>
   <si>
     <t>Чтение новости:
@@ -207,13 +234,40 @@
   </si>
   <si>
     <t>Всплывающее окно входящего звонка</t>
+  </si>
+  <si>
+    <t>Проверка работы на разных устройствах и разных разрешениях экрана</t>
+  </si>
+  <si>
+    <t>Авторизация на устройстве с параметрами экрана 1080*2400 пикселей, ratio 20:9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Авторизация на устройстве с параметрами экрана 800*480 пикселей </t>
+  </si>
+  <si>
+    <t>Авторизация на устройстве с параметрами экрана 1440*2560 пикселей, ratio 19:9</t>
+  </si>
+  <si>
+    <t>Авторизация на устройстве с параметрами экрана 2560*1080 пикселей</t>
+  </si>
+  <si>
+    <t>Нефункциональные проверки</t>
+  </si>
+  <si>
+    <t>Проверка времени загрузки приложения</t>
+  </si>
+  <si>
+    <t>Проверка работы блока новостей при высоких нагрузках</t>
+  </si>
+  <si>
+    <t>Проверка доступности блока новостей для людей с ограниченными возможностями</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -224,9 +278,14 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
     <font/>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -253,8 +312,26 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFF9900"/>
+        <bgColor rgb="FFFF9900"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEA9999"/>
+        <bgColor rgb="FFEA9999"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -316,7 +393,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="20">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -329,31 +406,49 @@
     <xf borderId="2" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="1" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="3" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="4" fillId="8" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="8" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf borderId="1" fillId="8" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="3" fillId="8" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -586,470 +681,789 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="5" t="s">
+      <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>5</v>
       </c>
+      <c r="C2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="6"/>
-      <c r="B3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>5</v>
+      <c r="A3" s="8"/>
+      <c r="B3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="6"/>
-      <c r="B4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>8</v>
+      <c r="A4" s="8"/>
+      <c r="B4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="6"/>
-      <c r="B5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>8</v>
+      <c r="A5" s="8"/>
+      <c r="B5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="6"/>
-      <c r="B6" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>5</v>
+      <c r="A6" s="8"/>
+      <c r="B6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="6"/>
-      <c r="B7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>8</v>
+      <c r="A7" s="8"/>
+      <c r="B7" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="6"/>
-      <c r="B8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>8</v>
+      <c r="A8" s="8"/>
+      <c r="B8" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="8"/>
-      <c r="B9" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>14</v>
+      <c r="B9" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>8</v>
+      <c r="A10" s="8"/>
+      <c r="B10" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="6"/>
-      <c r="B11" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>8</v>
+      <c r="A11" s="13"/>
+      <c r="B11" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="8"/>
-      <c r="B12" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>8</v>
+      <c r="A12" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="8"/>
+      <c r="B13" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="13"/>
+      <c r="B14" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="13"/>
+      <c r="B16" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="8"/>
-      <c r="B14" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="8"/>
-      <c r="B17" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>14</v>
+      <c r="D18" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="6"/>
-      <c r="B19" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>5</v>
+      <c r="A19" s="13"/>
+      <c r="B19" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="6"/>
-      <c r="B20" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>5</v>
+      <c r="A20" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="6"/>
-      <c r="B21" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>5</v>
+      <c r="A21" s="8"/>
+      <c r="B21" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="6"/>
-      <c r="B22" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C22" s="13"/>
+      <c r="A22" s="8"/>
+      <c r="B22" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="8"/>
-      <c r="B23" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>5</v>
+      <c r="B23" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>8</v>
+      <c r="A24" s="8"/>
+      <c r="B24" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="8"/>
-      <c r="B25" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>8</v>
+      <c r="A25" s="13"/>
+      <c r="B25" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>8</v>
+      <c r="A26" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="6"/>
-      <c r="B27" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>8</v>
+      <c r="A27" s="13"/>
+      <c r="B27" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="8"/>
-      <c r="B28" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>8</v>
+      <c r="A28" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>8</v>
+      <c r="A29" s="8"/>
+      <c r="B29" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="6"/>
-      <c r="B30" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>8</v>
+      <c r="A30" s="13"/>
+      <c r="B30" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="6"/>
-      <c r="B31" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>5</v>
+      <c r="A31" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="6"/>
-      <c r="B32" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>5</v>
+      <c r="A32" s="8"/>
+      <c r="B32" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="6"/>
-      <c r="B33" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>8</v>
+      <c r="A33" s="8"/>
+      <c r="B33" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="6"/>
-      <c r="B34" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>5</v>
+      <c r="A34" s="8"/>
+      <c r="B34" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="6"/>
-      <c r="B35" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>5</v>
+      <c r="A35" s="8"/>
+      <c r="B35" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="6"/>
-      <c r="B36" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>5</v>
+      <c r="A36" s="8"/>
+      <c r="B36" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="6"/>
-      <c r="B37" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C37" s="10" t="s">
-        <v>5</v>
+      <c r="A37" s="8"/>
+      <c r="B37" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="6"/>
-      <c r="B38" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>5</v>
+      <c r="A38" s="8"/>
+      <c r="B38" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="6"/>
-      <c r="B39" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="C39" s="10" t="s">
-        <v>5</v>
+      <c r="A39" s="8"/>
+      <c r="B39" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="6"/>
-      <c r="B40" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>5</v>
+      <c r="A40" s="8"/>
+      <c r="B40" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="6"/>
-      <c r="B41" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="C41" s="10" t="s">
-        <v>8</v>
+      <c r="A41" s="8"/>
+      <c r="B41" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="6"/>
-      <c r="B42" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>8</v>
+      <c r="A42" s="8"/>
+      <c r="B42" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="6"/>
-      <c r="B43" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="C43" s="10" t="s">
-        <v>8</v>
+      <c r="A43" s="8"/>
+      <c r="B43" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C43" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="6"/>
-      <c r="B44" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="C44" s="10" t="s">
-        <v>8</v>
+      <c r="A44" s="8"/>
+      <c r="B44" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C44" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="6"/>
-      <c r="B45" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="C45" s="10" t="s">
-        <v>8</v>
+      <c r="A45" s="8"/>
+      <c r="B45" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="C45" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="8"/>
-      <c r="B46" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="C46" s="10" t="s">
-        <v>5</v>
+      <c r="B46" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="C46" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="B47" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="C47" s="10" t="s">
-        <v>5</v>
+      <c r="A47" s="8"/>
+      <c r="B47" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="C47" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B48" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="C48" s="10" t="s">
-        <v>5</v>
+      <c r="A48" s="8"/>
+      <c r="B48" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="C48" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="8"/>
-      <c r="B49" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="C49" s="10" t="s">
-        <v>5</v>
+      <c r="B49" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="C49" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="8"/>
+      <c r="B50" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C50" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D50" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="8"/>
+      <c r="B51" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="C51" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="13"/>
+      <c r="B52" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C52" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D52" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="B53" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="C53" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D53" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B54" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C54" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D54" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="13"/>
+      <c r="B55" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C55" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D55" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="B56" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="C56" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="8"/>
+      <c r="B57" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="C57" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="8"/>
+      <c r="B58" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="C58" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D58" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="13"/>
+      <c r="B59" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="C59" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="B60" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="C60" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D60" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="8"/>
+      <c r="B61" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="C61" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D61" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="8"/>
+      <c r="B62" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="C62" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D62" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="13"/>
+      <c r="B63" s="18"/>
+      <c r="C63" s="18"/>
+      <c r="D63" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A29:A46"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="A2:A9"/>
+  <mergeCells count="11">
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="A56:A59"/>
+    <mergeCell ref="A60:A63"/>
+    <mergeCell ref="A31:A52"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A2:A11"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
